--- a/admin/modules/fileExcel/ENG01_INTERMEDIATE_Agreements.xlsx
+++ b/admin/modules/fileExcel/ENG01_INTERMEDIATE_Agreements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MNN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\app\xampp\htdocs\project\web-final\web2\admin\modules\fileExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A8126F-AEA1-4277-8A0D-DA8B94DD6FC1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF149E5-9B10-438F-99FA-7244283BD131}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0475CE09-3477-4ABB-B31B-30A65822B006}"/>
+    <workbookView xWindow="14448" yWindow="1320" windowWidth="11472" windowHeight="11256" xr2:uid="{0475CE09-3477-4ABB-B31B-30A65822B006}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -189,16 +189,16 @@
     <t>forecast</t>
   </si>
   <si>
-    <t>providing</t>
-  </si>
-  <si>
     <t>decipher</t>
   </si>
   <si>
     <t>decide</t>
   </si>
   <si>
-    <t>defer</t>
+    <t>provision</t>
+  </si>
+  <si>
+    <t>determine</t>
   </si>
 </sst>
 </file>
@@ -238,7 +238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -552,17 +552,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDF6C5C-0208-433D-AD12-A2CAE22D3C38}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A8:E11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="145.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="145.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -582,7 +582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -602,7 +602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -642,7 +642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -662,7 +662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -682,7 +682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -702,7 +702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -722,7 +722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -742,7 +742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -756,10 +756,13 @@
         <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -767,13 +770,16 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
         <v>53</v>
-      </c>
-      <c r="D11" t="s">
-        <v>54</v>
       </c>
       <c r="E11" t="s">
         <v>55</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/admin/modules/fileExcel/ENG01_INTERMEDIATE_Agreements.xlsx
+++ b/admin/modules/fileExcel/ENG01_INTERMEDIATE_Agreements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MNN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\XAMPP\htdocs\myProject\web2\admin\modules\fileExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A8126F-AEA1-4277-8A0D-DA8B94DD6FC1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9C51A6-953C-40EB-B945-898AACD8D2C4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0475CE09-3477-4ABB-B31B-30A65822B006}"/>
+    <workbookView xWindow="10185" yWindow="0" windowWidth="10305" windowHeight="10575" xr2:uid="{0475CE09-3477-4ABB-B31B-30A65822B006}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDF6C5C-0208-433D-AD12-A2CAE22D3C38}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A8:E11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,6 +758,9 @@
       <c r="E10" t="s">
         <v>52</v>
       </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -774,6 +777,9 @@
       </c>
       <c r="E11" t="s">
         <v>55</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
